--- a/temp_doc/DATA SISWA FIX copy.xlsx
+++ b/temp_doc/DATA SISWA FIX copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sppth_terbaru/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C676D61-42F3-B847-A950-0276B12246C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8367E-CEAE-824B-83B8-BD1187F44D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{60001193-A9FF-2349-BAE7-EDF15661F839}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="57">
   <si>
     <t>nis</t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t>ZASKIA DEVINA ROSALINA</t>
   </si>
+  <si>
+    <t>XI DKV 1</t>
+  </si>
+  <si>
+    <t>XII DKV 1</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -308,6 +314,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6137E-8CE5-FD4E-9A80-028781AAFAF0}">
   <dimension ref="A1:H1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,884 +1816,2292 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="A46" s="8">
+        <v>1131404</v>
+      </c>
+      <c r="B46" s="7">
+        <v>228588</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G46" s="6">
+        <v>404</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="A47" s="8">
+        <v>1132404</v>
+      </c>
+      <c r="B47" s="7">
+        <v>228589</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G47" s="6">
+        <v>404</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="A48" s="8">
+        <v>1133404</v>
+      </c>
+      <c r="B48" s="7">
+        <v>228590</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G48" s="6">
+        <v>404</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="A49" s="8">
+        <v>1134404</v>
+      </c>
+      <c r="B49" s="7">
+        <v>228591</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G49" s="6">
+        <v>404</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="8">
+        <v>1135404</v>
+      </c>
+      <c r="B50" s="7">
+        <v>228592</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G50" s="6">
+        <v>404</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="8">
+        <v>1136404</v>
+      </c>
+      <c r="B51" s="7">
+        <v>228593</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G51" s="6">
+        <v>404</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="A52" s="8">
+        <v>1137404</v>
+      </c>
+      <c r="B52" s="7">
+        <v>228594</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G52" s="6">
+        <v>404</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="A53" s="8">
+        <v>1138404</v>
+      </c>
+      <c r="B53" s="7">
+        <v>228595</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G53" s="6">
+        <v>404</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="A54" s="8">
+        <v>1139404</v>
+      </c>
+      <c r="B54" s="7">
+        <v>228596</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G54" s="6">
+        <v>404</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="A55" s="8">
+        <v>1140404</v>
+      </c>
+      <c r="B55" s="7">
+        <v>228597</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G55" s="6">
+        <v>404</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="A56" s="8">
+        <v>1141404</v>
+      </c>
+      <c r="B56" s="7">
+        <v>228599</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G56" s="6">
+        <v>404</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="A57" s="8">
+        <v>1142404</v>
+      </c>
+      <c r="B57" s="7">
+        <v>228600</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G57" s="6">
+        <v>404</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="A58" s="8">
+        <v>1143404</v>
+      </c>
+      <c r="B58" s="7">
+        <v>228601</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G58" s="6">
+        <v>404</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="A59" s="8">
+        <v>1144404</v>
+      </c>
+      <c r="B59" s="7">
+        <v>228602</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G59" s="6">
+        <v>404</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="A60" s="8">
+        <v>1145404</v>
+      </c>
+      <c r="B60" s="7">
+        <v>228603</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G60" s="6">
+        <v>404</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="A61" s="8">
+        <v>1146404</v>
+      </c>
+      <c r="B61" s="7">
+        <v>228604</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G61" s="6">
+        <v>404</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="A62" s="8">
+        <v>1147404</v>
+      </c>
+      <c r="B62" s="7">
+        <v>228605</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G62" s="6">
+        <v>404</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="A63" s="8">
+        <v>1148404</v>
+      </c>
+      <c r="B63" s="7">
+        <v>228606</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G63" s="6">
+        <v>404</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="A64" s="8">
+        <v>1149404</v>
+      </c>
+      <c r="B64" s="7">
+        <v>228607</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G64" s="6">
+        <v>404</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="A65" s="8">
+        <v>1150404</v>
+      </c>
+      <c r="B65" s="7">
+        <v>228608</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G65" s="6">
+        <v>404</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="A66" s="8">
+        <v>1151404</v>
+      </c>
+      <c r="B66" s="7">
+        <v>228609</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G66" s="6">
+        <v>404</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="A67" s="8">
+        <v>1152404</v>
+      </c>
+      <c r="B67" s="7">
+        <v>228610</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G67" s="6">
+        <v>404</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="A68" s="8">
+        <v>1153404</v>
+      </c>
+      <c r="B68" s="7">
+        <v>228611</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G68" s="6">
+        <v>404</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="A69" s="8">
+        <v>1154404</v>
+      </c>
+      <c r="B69" s="7">
+        <v>228612</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G69" s="6">
+        <v>404</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="A70" s="8">
+        <v>1155404</v>
+      </c>
+      <c r="B70" s="7">
+        <v>228613</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G70" s="6">
+        <v>404</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="A71" s="8">
+        <v>1156404</v>
+      </c>
+      <c r="B71" s="7">
+        <v>228614</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G71" s="6">
+        <v>404</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="A72" s="8">
+        <v>1157404</v>
+      </c>
+      <c r="B72" s="7">
+        <v>228615</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G72" s="6">
+        <v>404</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="A73" s="8">
+        <v>1158404</v>
+      </c>
+      <c r="B73" s="7">
+        <v>228616</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G73" s="6">
+        <v>404</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="A74" s="8">
+        <v>1159404</v>
+      </c>
+      <c r="B74" s="7">
+        <v>228617</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G74" s="6">
+        <v>404</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="A75" s="8">
+        <v>1160404</v>
+      </c>
+      <c r="B75" s="7">
+        <v>228618</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G75" s="6">
+        <v>404</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="A76" s="8">
+        <v>1161404</v>
+      </c>
+      <c r="B76" s="7">
+        <v>228619</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G76" s="6">
+        <v>404</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="A77" s="8">
+        <v>1162404</v>
+      </c>
+      <c r="B77" s="7">
+        <v>228620</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G77" s="6">
+        <v>404</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="A78" s="8">
+        <v>1163404</v>
+      </c>
+      <c r="B78" s="7">
+        <v>228621</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G78" s="6">
+        <v>404</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="A79" s="8">
+        <v>1164404</v>
+      </c>
+      <c r="B79" s="7">
+        <v>228622</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G79" s="6">
+        <v>404</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="A80" s="8">
+        <v>1165404</v>
+      </c>
+      <c r="B80" s="7">
+        <v>228623</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G80" s="6">
+        <v>404</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="A81" s="8">
+        <v>1166404</v>
+      </c>
+      <c r="B81" s="7">
+        <v>228624</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G81" s="6">
+        <v>404</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="A82" s="8">
+        <v>1167404</v>
+      </c>
+      <c r="B82" s="7">
+        <v>228625</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G82" s="6">
+        <v>404</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="A83" s="8">
+        <v>1168404</v>
+      </c>
+      <c r="B83" s="7">
+        <v>228626</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G83" s="6">
+        <v>404</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="A84" s="8">
+        <v>1169404</v>
+      </c>
+      <c r="B84" s="7">
+        <v>228627</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G84" s="6">
+        <v>404</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="A85" s="8">
+        <v>1170404</v>
+      </c>
+      <c r="B85" s="7">
+        <v>228628</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G85" s="6">
+        <v>404</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="A86" s="8">
+        <v>1171404</v>
+      </c>
+      <c r="B86" s="7">
+        <v>228629</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G86" s="6">
+        <v>404</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="A87" s="8">
+        <v>1172404</v>
+      </c>
+      <c r="B87" s="7">
+        <v>228630</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G87" s="6">
+        <v>404</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="A88" s="8">
+        <v>1173404</v>
+      </c>
+      <c r="B88" s="7">
+        <v>228631</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G88" s="6">
+        <v>404</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="A89" s="8">
+        <v>1174404</v>
+      </c>
+      <c r="B89" s="7">
+        <v>228632</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="6">
+        <v>4004</v>
+      </c>
+      <c r="G89" s="6">
+        <v>404</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="A90" s="8">
+        <v>1175505</v>
+      </c>
+      <c r="B90" s="7">
+        <v>228588</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G90" s="6">
+        <v>505</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="A91" s="8">
+        <v>1176505</v>
+      </c>
+      <c r="B91" s="7">
+        <v>228589</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G91" s="6">
+        <v>505</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="A92" s="8">
+        <v>1177505</v>
+      </c>
+      <c r="B92" s="7">
+        <v>228590</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G92" s="6">
+        <v>505</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="A93" s="8">
+        <v>1178505</v>
+      </c>
+      <c r="B93" s="7">
+        <v>228591</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G93" s="6">
+        <v>505</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="A94" s="8">
+        <v>1179505</v>
+      </c>
+      <c r="B94" s="7">
+        <v>228592</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G94" s="6">
+        <v>505</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="A95" s="8">
+        <v>1180505</v>
+      </c>
+      <c r="B95" s="7">
+        <v>228593</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G95" s="6">
+        <v>505</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="A96" s="8">
+        <v>1181505</v>
+      </c>
+      <c r="B96" s="7">
+        <v>228594</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G96" s="6">
+        <v>505</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="A97" s="8">
+        <v>1182505</v>
+      </c>
+      <c r="B97" s="7">
+        <v>228595</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G97" s="6">
+        <v>505</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="A98" s="8">
+        <v>1183505</v>
+      </c>
+      <c r="B98" s="7">
+        <v>228596</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F98" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G98" s="6">
+        <v>505</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="A99" s="8">
+        <v>1184505</v>
+      </c>
+      <c r="B99" s="7">
+        <v>228597</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G99" s="6">
+        <v>505</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="A100" s="8">
+        <v>1185505</v>
+      </c>
+      <c r="B100" s="7">
+        <v>228599</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G100" s="6">
+        <v>505</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="A101" s="8">
+        <v>1186505</v>
+      </c>
+      <c r="B101" s="7">
+        <v>228600</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G101" s="6">
+        <v>505</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="A102" s="8">
+        <v>1187505</v>
+      </c>
+      <c r="B102" s="7">
+        <v>228601</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G102" s="6">
+        <v>505</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="A103" s="8">
+        <v>1188505</v>
+      </c>
+      <c r="B103" s="7">
+        <v>228602</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G103" s="6">
+        <v>505</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="A104" s="8">
+        <v>1189505</v>
+      </c>
+      <c r="B104" s="7">
+        <v>228603</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G104" s="6">
+        <v>505</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="A105" s="8">
+        <v>1190505</v>
+      </c>
+      <c r="B105" s="7">
+        <v>228604</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G105" s="6">
+        <v>505</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="A106" s="8">
+        <v>1191505</v>
+      </c>
+      <c r="B106" s="7">
+        <v>228605</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G106" s="6">
+        <v>505</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="A107" s="8">
+        <v>1192505</v>
+      </c>
+      <c r="B107" s="7">
+        <v>228606</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G107" s="6">
+        <v>505</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
+      <c r="A108" s="8">
+        <v>1193505</v>
+      </c>
+      <c r="B108" s="7">
+        <v>228607</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F108" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G108" s="6">
+        <v>505</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="A109" s="8">
+        <v>1194505</v>
+      </c>
+      <c r="B109" s="7">
+        <v>228608</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G109" s="6">
+        <v>505</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+      <c r="A110" s="8">
+        <v>1195505</v>
+      </c>
+      <c r="B110" s="7">
+        <v>228609</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G110" s="6">
+        <v>505</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="A111" s="8">
+        <v>1196505</v>
+      </c>
+      <c r="B111" s="7">
+        <v>228610</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G111" s="6">
+        <v>505</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
+      <c r="A112" s="8">
+        <v>1197505</v>
+      </c>
+      <c r="B112" s="7">
+        <v>228611</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G112" s="6">
+        <v>505</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="A113" s="8">
+        <v>1198505</v>
+      </c>
+      <c r="B113" s="7">
+        <v>228612</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G113" s="6">
+        <v>505</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="A114" s="8">
+        <v>1199505</v>
+      </c>
+      <c r="B114" s="7">
+        <v>228613</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G114" s="6">
+        <v>505</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="A115" s="8">
+        <v>1200505</v>
+      </c>
+      <c r="B115" s="7">
+        <v>228614</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G115" s="6">
+        <v>505</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="A116" s="8">
+        <v>1201505</v>
+      </c>
+      <c r="B116" s="7">
+        <v>228615</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G116" s="6">
+        <v>505</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+      <c r="A117" s="8">
+        <v>1202505</v>
+      </c>
+      <c r="B117" s="7">
+        <v>228616</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G117" s="6">
+        <v>505</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="A118" s="8">
+        <v>1203505</v>
+      </c>
+      <c r="B118" s="7">
+        <v>228617</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G118" s="6">
+        <v>505</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="A119" s="8">
+        <v>1204505</v>
+      </c>
+      <c r="B119" s="7">
+        <v>228618</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G119" s="6">
+        <v>505</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="A120" s="8">
+        <v>1205505</v>
+      </c>
+      <c r="B120" s="7">
+        <v>228619</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G120" s="6">
+        <v>505</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="A121" s="8">
+        <v>1206505</v>
+      </c>
+      <c r="B121" s="7">
+        <v>228620</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G121" s="6">
+        <v>505</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
+      <c r="A122" s="8">
+        <v>1207505</v>
+      </c>
+      <c r="B122" s="7">
+        <v>228621</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G122" s="6">
+        <v>505</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="A123" s="8">
+        <v>1208505</v>
+      </c>
+      <c r="B123" s="7">
+        <v>228622</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G123" s="6">
+        <v>505</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="A124" s="8">
+        <v>1209505</v>
+      </c>
+      <c r="B124" s="7">
+        <v>228623</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G124" s="6">
+        <v>505</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="A125" s="8">
+        <v>1210505</v>
+      </c>
+      <c r="B125" s="7">
+        <v>228624</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G125" s="6">
+        <v>505</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="A126" s="8">
+        <v>1211505</v>
+      </c>
+      <c r="B126" s="7">
+        <v>228625</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G126" s="6">
+        <v>505</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="A127" s="8">
+        <v>1212505</v>
+      </c>
+      <c r="B127" s="7">
+        <v>228626</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G127" s="6">
+        <v>505</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="A128" s="8">
+        <v>1213505</v>
+      </c>
+      <c r="B128" s="7">
+        <v>228627</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G128" s="6">
+        <v>505</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="A129" s="8">
+        <v>1214505</v>
+      </c>
+      <c r="B129" s="7">
+        <v>228628</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F129" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G129" s="6">
+        <v>505</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="A130" s="8">
+        <v>1215505</v>
+      </c>
+      <c r="B130" s="7">
+        <v>228629</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F130" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G130" s="6">
+        <v>505</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="A131" s="8">
+        <v>1216505</v>
+      </c>
+      <c r="B131" s="7">
+        <v>228630</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G131" s="6">
+        <v>505</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="A132" s="8">
+        <v>1217505</v>
+      </c>
+      <c r="B132" s="7">
+        <v>228631</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G132" s="6">
+        <v>505</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="A133" s="8">
+        <v>1218505</v>
+      </c>
+      <c r="B133" s="7">
+        <v>228632</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="6">
+        <v>6006</v>
+      </c>
+      <c r="G133" s="6">
+        <v>505</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>

--- a/temp_doc/DATA SISWA FIX copy.xlsx
+++ b/temp_doc/DATA SISWA FIX copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sppth_terbaru/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8367E-CEAE-824B-83B8-BD1187F44D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9FBDA-0925-DB4A-B0B6-F6F0B03D65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{60001193-A9FF-2349-BAE7-EDF15661F839}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{60001193-A9FF-2349-BAE7-EDF15661F839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,7 +314,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6137E-8CE5-FD4E-9A80-028781AAFAF0}">
   <dimension ref="A1:H1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1815,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>1131404</v>
       </c>
       <c r="B46" s="7">
@@ -1842,7 +1841,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>1132404</v>
       </c>
       <c r="B47" s="7">
@@ -1868,7 +1867,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>1133404</v>
       </c>
       <c r="B48" s="7">
@@ -1894,7 +1893,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <v>1134404</v>
       </c>
       <c r="B49" s="7">
@@ -1920,7 +1919,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>1135404</v>
       </c>
       <c r="B50" s="7">
@@ -1946,7 +1945,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>1136404</v>
       </c>
       <c r="B51" s="7">
@@ -1972,7 +1971,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>1137404</v>
       </c>
       <c r="B52" s="7">
@@ -1998,7 +1997,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <v>1138404</v>
       </c>
       <c r="B53" s="7">
@@ -2024,7 +2023,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>1139404</v>
       </c>
       <c r="B54" s="7">
@@ -2050,7 +2049,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="6">
         <v>1140404</v>
       </c>
       <c r="B55" s="7">
@@ -2076,7 +2075,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="6">
         <v>1141404</v>
       </c>
       <c r="B56" s="7">
@@ -2102,7 +2101,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="6">
         <v>1142404</v>
       </c>
       <c r="B57" s="7">
@@ -2128,7 +2127,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="6">
         <v>1143404</v>
       </c>
       <c r="B58" s="7">
@@ -2154,7 +2153,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>1144404</v>
       </c>
       <c r="B59" s="7">
@@ -2180,7 +2179,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="6">
         <v>1145404</v>
       </c>
       <c r="B60" s="7">
@@ -2206,7 +2205,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61" s="6">
         <v>1146404</v>
       </c>
       <c r="B61" s="7">
@@ -2232,7 +2231,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="6">
         <v>1147404</v>
       </c>
       <c r="B62" s="7">
@@ -2258,7 +2257,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="6">
         <v>1148404</v>
       </c>
       <c r="B63" s="7">
@@ -2284,7 +2283,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="A64" s="6">
         <v>1149404</v>
       </c>
       <c r="B64" s="7">
@@ -2310,7 +2309,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+      <c r="A65" s="6">
         <v>1150404</v>
       </c>
       <c r="B65" s="7">
@@ -2336,7 +2335,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="A66" s="6">
         <v>1151404</v>
       </c>
       <c r="B66" s="7">
@@ -2362,7 +2361,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+      <c r="A67" s="6">
         <v>1152404</v>
       </c>
       <c r="B67" s="7">
@@ -2388,7 +2387,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68" s="6">
         <v>1153404</v>
       </c>
       <c r="B68" s="7">
@@ -2414,7 +2413,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="A69" s="6">
         <v>1154404</v>
       </c>
       <c r="B69" s="7">
@@ -2440,7 +2439,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70" s="6">
         <v>1155404</v>
       </c>
       <c r="B70" s="7">
@@ -2466,7 +2465,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71" s="6">
         <v>1156404</v>
       </c>
       <c r="B71" s="7">
@@ -2492,7 +2491,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="6">
         <v>1157404</v>
       </c>
       <c r="B72" s="7">
@@ -2518,7 +2517,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="6">
         <v>1158404</v>
       </c>
       <c r="B73" s="7">
@@ -2544,7 +2543,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74" s="6">
         <v>1159404</v>
       </c>
       <c r="B74" s="7">
@@ -2570,7 +2569,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="A75" s="6">
         <v>1160404</v>
       </c>
       <c r="B75" s="7">
@@ -2596,7 +2595,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="A76" s="6">
         <v>1161404</v>
       </c>
       <c r="B76" s="7">
@@ -2622,7 +2621,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+      <c r="A77" s="6">
         <v>1162404</v>
       </c>
       <c r="B77" s="7">
@@ -2648,7 +2647,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A78" s="6">
         <v>1163404</v>
       </c>
       <c r="B78" s="7">
@@ -2674,7 +2673,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="A79" s="6">
         <v>1164404</v>
       </c>
       <c r="B79" s="7">
@@ -2700,7 +2699,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="A80" s="6">
         <v>1165404</v>
       </c>
       <c r="B80" s="7">
@@ -2726,7 +2725,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+      <c r="A81" s="6">
         <v>1166404</v>
       </c>
       <c r="B81" s="7">
@@ -2752,7 +2751,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="6">
         <v>1167404</v>
       </c>
       <c r="B82" s="7">
@@ -2778,7 +2777,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+      <c r="A83" s="6">
         <v>1168404</v>
       </c>
       <c r="B83" s="7">
@@ -2804,7 +2803,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+      <c r="A84" s="6">
         <v>1169404</v>
       </c>
       <c r="B84" s="7">
@@ -2830,7 +2829,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+      <c r="A85" s="6">
         <v>1170404</v>
       </c>
       <c r="B85" s="7">
@@ -2856,7 +2855,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="6">
         <v>1171404</v>
       </c>
       <c r="B86" s="7">
@@ -2882,7 +2881,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+      <c r="A87" s="6">
         <v>1172404</v>
       </c>
       <c r="B87" s="7">
@@ -2908,7 +2907,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="A88" s="6">
         <v>1173404</v>
       </c>
       <c r="B88" s="7">
@@ -2934,7 +2933,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="A89" s="6">
         <v>1174404</v>
       </c>
       <c r="B89" s="7">
@@ -2960,7 +2959,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="A90" s="6">
         <v>1175505</v>
       </c>
       <c r="B90" s="7">
@@ -2986,7 +2985,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+      <c r="A91" s="6">
         <v>1176505</v>
       </c>
       <c r="B91" s="7">
@@ -3012,7 +3011,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="6">
         <v>1177505</v>
       </c>
       <c r="B92" s="7">
@@ -3038,7 +3037,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+      <c r="A93" s="6">
         <v>1178505</v>
       </c>
       <c r="B93" s="7">
@@ -3064,7 +3063,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="A94" s="6">
         <v>1179505</v>
       </c>
       <c r="B94" s="7">
@@ -3090,7 +3089,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+      <c r="A95" s="6">
         <v>1180505</v>
       </c>
       <c r="B95" s="7">
@@ -3116,7 +3115,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="A96" s="6">
         <v>1181505</v>
       </c>
       <c r="B96" s="7">
@@ -3142,7 +3141,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="6">
         <v>1182505</v>
       </c>
       <c r="B97" s="7">
@@ -3168,7 +3167,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="A98" s="6">
         <v>1183505</v>
       </c>
       <c r="B98" s="7">
@@ -3194,7 +3193,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+      <c r="A99" s="6">
         <v>1184505</v>
       </c>
       <c r="B99" s="7">
@@ -3220,7 +3219,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="A100" s="6">
         <v>1185505</v>
       </c>
       <c r="B100" s="7">
@@ -3246,7 +3245,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
+      <c r="A101" s="6">
         <v>1186505</v>
       </c>
       <c r="B101" s="7">
@@ -3272,7 +3271,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="6">
         <v>1187505</v>
       </c>
       <c r="B102" s="7">
@@ -3298,7 +3297,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="6">
         <v>1188505</v>
       </c>
       <c r="B103" s="7">
@@ -3324,7 +3323,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="6">
         <v>1189505</v>
       </c>
       <c r="B104" s="7">
@@ -3350,7 +3349,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="6">
         <v>1190505</v>
       </c>
       <c r="B105" s="7">
@@ -3376,7 +3375,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="6">
         <v>1191505</v>
       </c>
       <c r="B106" s="7">
@@ -3402,7 +3401,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="6">
         <v>1192505</v>
       </c>
       <c r="B107" s="7">
@@ -3428,7 +3427,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="6">
         <v>1193505</v>
       </c>
       <c r="B108" s="7">
@@ -3454,7 +3453,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="6">
         <v>1194505</v>
       </c>
       <c r="B109" s="7">
@@ -3480,7 +3479,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="6">
         <v>1195505</v>
       </c>
       <c r="B110" s="7">
@@ -3506,7 +3505,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+      <c r="A111" s="6">
         <v>1196505</v>
       </c>
       <c r="B111" s="7">
@@ -3532,7 +3531,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="A112" s="6">
         <v>1197505</v>
       </c>
       <c r="B112" s="7">
@@ -3558,7 +3557,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="6">
         <v>1198505</v>
       </c>
       <c r="B113" s="7">
@@ -3584,7 +3583,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="6">
         <v>1199505</v>
       </c>
       <c r="B114" s="7">
@@ -3610,7 +3609,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+      <c r="A115" s="6">
         <v>1200505</v>
       </c>
       <c r="B115" s="7">
@@ -3636,7 +3635,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="6">
         <v>1201505</v>
       </c>
       <c r="B116" s="7">
@@ -3662,7 +3661,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+      <c r="A117" s="6">
         <v>1202505</v>
       </c>
       <c r="B117" s="7">
@@ -3688,7 +3687,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="6">
         <v>1203505</v>
       </c>
       <c r="B118" s="7">
@@ -3714,7 +3713,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="A119" s="6">
         <v>1204505</v>
       </c>
       <c r="B119" s="7">
@@ -3740,7 +3739,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="6">
         <v>1205505</v>
       </c>
       <c r="B120" s="7">
@@ -3766,7 +3765,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+      <c r="A121" s="6">
         <v>1206505</v>
       </c>
       <c r="B121" s="7">
@@ -3792,7 +3791,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+      <c r="A122" s="6">
         <v>1207505</v>
       </c>
       <c r="B122" s="7">
@@ -3818,7 +3817,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
+      <c r="A123" s="6">
         <v>1208505</v>
       </c>
       <c r="B123" s="7">
@@ -3844,7 +3843,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+      <c r="A124" s="6">
         <v>1209505</v>
       </c>
       <c r="B124" s="7">
@@ -3870,7 +3869,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
+      <c r="A125" s="6">
         <v>1210505</v>
       </c>
       <c r="B125" s="7">
@@ -3896,7 +3895,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
+      <c r="A126" s="6">
         <v>1211505</v>
       </c>
       <c r="B126" s="7">
@@ -3922,7 +3921,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+      <c r="A127" s="6">
         <v>1212505</v>
       </c>
       <c r="B127" s="7">
@@ -3948,7 +3947,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+      <c r="A128" s="6">
         <v>1213505</v>
       </c>
       <c r="B128" s="7">
@@ -3974,7 +3973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
+      <c r="A129" s="6">
         <v>1214505</v>
       </c>
       <c r="B129" s="7">
@@ -4000,7 +3999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+      <c r="A130" s="6">
         <v>1215505</v>
       </c>
       <c r="B130" s="7">
@@ -4026,7 +4025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
+      <c r="A131" s="6">
         <v>1216505</v>
       </c>
       <c r="B131" s="7">
@@ -4052,7 +4051,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
+      <c r="A132" s="6">
         <v>1217505</v>
       </c>
       <c r="B132" s="7">
@@ -4078,7 +4077,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
+      <c r="A133" s="6">
         <v>1218505</v>
       </c>
       <c r="B133" s="7">
